--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value575.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value575.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.915886476203164</v>
+        <v>1.140395522117615</v>
       </c>
       <c r="B1">
-        <v>2.59314195429505</v>
+        <v>2.228063821792603</v>
       </c>
       <c r="C1">
-        <v>2.689082220515135</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.9724188633824219</v>
+        <v>2.183600425720215</v>
       </c>
       <c r="E1">
-        <v>0.7931140273542906</v>
+        <v>1.075807690620422</v>
       </c>
     </row>
   </sheetData>
